--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Rpz4qH1Cq4z-cke7EyHxBWQT6nrvyQL9\BID RDM Petorca\Development\OE 2_Model WM LP\Reuniones_EjecucionParalelo\ArchivosFinales\ligua_petorca\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE670A6-3C98-4768-9027-B04969C75AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973C45F9-EF07-45DB-8AD4-04A7C9681DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -52,87 +52,12 @@
     <t>Favorito</t>
   </si>
   <si>
-    <t>\\Annual Crop Production - Agricola</t>
-  </si>
-  <si>
-    <t>\\Daily ET Actual - Agricola</t>
-  </si>
-  <si>
-    <t>\\Area - Agricola_SB</t>
-  </si>
-  <si>
-    <t>\\Area - Agricola_todo</t>
-  </si>
-  <si>
-    <t>\\Daily ET Potential - Agricola</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L05</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L06</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L07</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L08</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L09</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_L10</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_P02</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_P05</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_P06</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_P07</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - Agricola_P08</t>
-  </si>
-  <si>
     <t>\\Unmet Demand - Agua Potable</t>
   </si>
   <si>
-    <t>\\Supply Delivered - APR - Comuna Petorca</t>
-  </si>
-  <si>
     <t>WEAP Export</t>
   </si>
   <si>
-    <t>\\Supply Delivered - APR - Comuna La Ligua</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APR - Comuna Cabildo</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APR - Comuna Papudo</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APU - Cabildo</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APU - La Ligua</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APU - Chincolco</t>
-  </si>
-  <si>
-    <t>\\Supply Delivered - APU - Petorca</t>
-  </si>
-  <si>
-    <t>\\Operacion Pozos - Agua Potable</t>
-  </si>
-  <si>
     <t>AnnualCropProduction_AGR</t>
   </si>
   <si>
@@ -209,6 +134,81 @@
   </si>
   <si>
     <t>OperacionPozos_AP</t>
+  </si>
+  <si>
+    <t>\Annual Crop Production - Agricola</t>
+  </si>
+  <si>
+    <t>\Area - Agricola_SB</t>
+  </si>
+  <si>
+    <t>\Area - Agricola_todo</t>
+  </si>
+  <si>
+    <t>\Daily ET Actual - Agricola</t>
+  </si>
+  <si>
+    <t>\Daily ET Potential - Agricola</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L05</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L06</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L07</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L08</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L09</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_L10</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_P02</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_P05</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_P06</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_P07</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Agricola_P08</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APR - Comuna Petorca</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APR - Comuna La Ligua</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APR - Comuna Cabildo</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APR - Comuna Papudo</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APU - Cabildo</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APU - La Ligua</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APU - Chincolco</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - APU - Petorca</t>
+  </si>
+  <si>
+    <t>\Operacion Pozos - Agua Potable</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC939AC8-092F-4C85-92F1-AFFD2910D7B3}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,14 +659,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
-        <v>RDM\\Annual Crop Production - Agricola</v>
+        <v>RDM\Annual Crop Production - Agricola</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,14 +677,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D27" si="0">_xlfn.CONCAT(B3:C3)</f>
-        <v>RDM\\Area - Agricola_SB</v>
+        <v>RDM\Area - Agricola_SB</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,14 +695,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Area - Agricola_todo</v>
+        <v>RDM\Area - Agricola_todo</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,14 +713,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
-        <v>RDM\\Daily ET Actual - Agricola</v>
+        <v>RDM\Daily ET Actual - Agricola</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,14 +731,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Daily ET Potential - Agricola</v>
+        <v>RDM\Daily ET Potential - Agricola</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,14 +749,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L05</v>
+        <v>RDM\Supply Delivered - Agricola_L05</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,14 +767,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L06</v>
+        <v>RDM\Supply Delivered - Agricola_L06</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,14 +785,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L07</v>
+        <v>RDM\Supply Delivered - Agricola_L07</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,14 +803,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L08</v>
+        <v>RDM\Supply Delivered - Agricola_L08</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,14 +821,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L09</v>
+        <v>RDM\Supply Delivered - Agricola_L09</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -839,14 +839,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_L10</v>
+        <v>RDM\Supply Delivered - Agricola_L10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -857,14 +857,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_P02</v>
+        <v>RDM\Supply Delivered - Agricola_P02</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -875,14 +875,14 @@
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>_xlfn.CONCAT(B14:C14)</f>
-        <v>RDM\\Supply Delivered - Agricola_P05</v>
+        <v>RDM\Supply Delivered - Agricola_P05</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -893,14 +893,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_P06</v>
+        <v>RDM\Supply Delivered - Agricola_P06</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -911,14 +911,14 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_P07</v>
+        <v>RDM\Supply Delivered - Agricola_P07</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -929,14 +929,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - Agricola_P08</v>
+        <v>RDM\Supply Delivered - Agricola_P08</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -947,14 +947,14 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\\Unmet Demand - Agua Potable</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,14 +965,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APR - Comuna Petorca</v>
+        <v>RDM\Supply Delivered - APR - Comuna Petorca</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,14 +983,14 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APR - Comuna La Ligua</v>
+        <v>RDM\Supply Delivered - APR - Comuna La Ligua</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,14 +1001,14 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APR - Comuna Cabildo</v>
+        <v>RDM\Supply Delivered - APR - Comuna Cabildo</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,14 +1019,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APR - Comuna Papudo</v>
+        <v>RDM\Supply Delivered - APR - Comuna Papudo</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,14 +1037,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APU - Cabildo</v>
+        <v>RDM\Supply Delivered - APU - Cabildo</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,14 +1055,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APU - La Ligua</v>
+        <v>RDM\Supply Delivered - APU - La Ligua</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,14 +1073,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APU - Chincolco</v>
+        <v>RDM\Supply Delivered - APU - Chincolco</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1091,14 +1091,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Supply Delivered - APU - Petorca</v>
+        <v>RDM\Supply Delivered - APU - Petorca</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1109,14 +1109,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Operacion Pozos - Agua Potable</v>
+        <v>RDM\Operacion Pozos - Agua Potable</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973C45F9-EF07-45DB-8AD4-04A7C9681DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D1F67-A574-44F6-B36D-204B70F089EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Favorito</t>
   </si>
   <si>
-    <t>\\Unmet Demand - Agua Potable</t>
-  </si>
-  <si>
     <t>WEAP Export</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>\Operacion Pozos - Agua Potable</t>
+  </si>
+  <si>
+    <t>\Unmet Demand - Agua Potable</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,14 +659,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>RDM\Annual Crop Production - Agricola</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,14 +677,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D27" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>RDM\Area - Agricola_SB</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,14 +695,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Area - Agricola_todo</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,14 +713,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>RDM\Daily ET Actual - Agricola</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,14 +731,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Daily ET Potential - Agricola</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,14 +749,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L05</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,14 +767,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L06</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,14 +785,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L07</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,14 +803,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L08</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,14 +821,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L09</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -839,14 +839,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_L10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -857,14 +857,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_P02</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -875,14 +875,14 @@
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>_xlfn.CONCAT(B14:C14)</f>
         <v>RDM\Supply Delivered - Agricola_P05</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -893,14 +893,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_P06</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -911,14 +911,14 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_P07</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -929,14 +929,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - Agricola_P08</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -947,14 +947,14 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\\Unmet Demand - Agua Potable</v>
+        <v>RDM\Unmet Demand - Agua Potable</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,14 +965,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APR - Comuna Petorca</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,14 +983,14 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APR - Comuna La Ligua</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,14 +1001,14 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APR - Comuna Cabildo</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,14 +1019,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APR - Comuna Papudo</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,14 +1037,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APU - Cabildo</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,14 +1055,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APU - La Ligua</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,14 +1073,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APU - Chincolco</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1091,14 +1091,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Supply Delivered - APU - Petorca</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1109,14 +1109,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\Operacion Pozos - Agua Potable</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\WEAP_vagrant_multimachine\src\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\Historico_LP\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D1F67-A574-44F6-B36D-204B70F089EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC412F3-AAB7-40F8-8A8A-4C8C47608887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -55,160 +55,544 @@
     <t>WEAP Export</t>
   </si>
   <si>
-    <t>AnnualCropProduction_AGR</t>
-  </si>
-  <si>
-    <t>Area_SB_AGR</t>
-  </si>
-  <si>
-    <t>Area_AGR</t>
-  </si>
-  <si>
-    <t>ETA_AGR</t>
-  </si>
-  <si>
-    <t>ETP_AGR</t>
-  </si>
-  <si>
-    <t>SD_AGR_L05</t>
-  </si>
-  <si>
-    <t>SD_AGR_L06</t>
-  </si>
-  <si>
-    <t>SD_AGR_L07</t>
-  </si>
-  <si>
-    <t>SD_AGR_L08</t>
-  </si>
-  <si>
-    <t>SD_AGR_L09</t>
-  </si>
-  <si>
-    <t>SD_AGR_L10</t>
-  </si>
-  <si>
-    <t>SD_AGR_P02</t>
-  </si>
-  <si>
-    <t>SD_AGR_P05</t>
-  </si>
-  <si>
-    <t>SD_AGR_P06</t>
-  </si>
-  <si>
-    <t>SD_AGR_P07</t>
-  </si>
-  <si>
-    <t>SD_AGR_P08</t>
-  </si>
-  <si>
-    <t>SD_APU_Cabildo</t>
-  </si>
-  <si>
-    <t>SD_APU_Petorca</t>
-  </si>
-  <si>
-    <t>UD_AP</t>
-  </si>
-  <si>
-    <t>SD_APR_Petorca</t>
-  </si>
-  <si>
-    <t>SD_APR_Cabildo</t>
-  </si>
-  <si>
-    <t>SD_APR_Papudo</t>
-  </si>
-  <si>
-    <t>SD_APU_Ligua</t>
-  </si>
-  <si>
-    <t>SD_APR_LaLigua</t>
-  </si>
-  <si>
-    <t>SD_APU_Chincolco</t>
-  </si>
-  <si>
-    <t>OperacionPozos_AP</t>
-  </si>
-  <si>
-    <t>\Annual Crop Production - Agricola</t>
-  </si>
-  <si>
-    <t>\Area - Agricola_SB</t>
-  </si>
-  <si>
-    <t>\Area - Agricola_todo</t>
-  </si>
-  <si>
-    <t>\Daily ET Actual - Agricola</t>
-  </si>
-  <si>
-    <t>\Daily ET Potential - Agricola</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L05</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L06</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L07</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L08</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L09</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_L10</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_P02</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_P05</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_P06</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_P07</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - Agricola_P08</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APR - Comuna Petorca</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APR - Comuna La Ligua</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APR - Comuna Cabildo</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APR - Comuna Papudo</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APU - Cabildo</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APU - La Ligua</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APU - Chincolco</t>
-  </si>
-  <si>
-    <t>\Supply Delivered - APU - Petorca</t>
-  </si>
-  <si>
-    <t>\Operacion Pozos - Agua Potable</t>
-  </si>
-  <si>
-    <t>\Unmet Demand - Agua Potable</t>
+    <t>\AGR - Area</t>
+  </si>
+  <si>
+    <t>\AGR - Daily Etp</t>
+  </si>
+  <si>
+    <t>\AGR - Daily Eta</t>
+  </si>
+  <si>
+    <t>\AGR - Daily Irrigation_m3</t>
+  </si>
+  <si>
+    <t>\AGR - Daily Irrigation_mm</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L05</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L06</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L07</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L08</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L09</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_L10</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_P02</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_P05</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_P06</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_P07</t>
+  </si>
+  <si>
+    <t>\AGR - SD - Agricola_P08</t>
+  </si>
+  <si>
+    <t>\AGR - Annual Crop Production</t>
+  </si>
+  <si>
+    <t>AGR_Area</t>
+  </si>
+  <si>
+    <t>AGR_ETp</t>
+  </si>
+  <si>
+    <t>AGR_ETa</t>
+  </si>
+  <si>
+    <t>AGR_DailyIrrigation_m3</t>
+  </si>
+  <si>
+    <t>AGR_DailyIrrigation_mm</t>
+  </si>
+  <si>
+    <t>AGR_SD_L05</t>
+  </si>
+  <si>
+    <t>AGR_SD_L06</t>
+  </si>
+  <si>
+    <t>AGR_SD_L07</t>
+  </si>
+  <si>
+    <t>AGR_SD_L08</t>
+  </si>
+  <si>
+    <t>AGR_SD_L09</t>
+  </si>
+  <si>
+    <t>AGR_SD_L10</t>
+  </si>
+  <si>
+    <t>AGR_SD_P02</t>
+  </si>
+  <si>
+    <t>AGR_SD_P05</t>
+  </si>
+  <si>
+    <t>AGR_SD_P06</t>
+  </si>
+  <si>
+    <t>AGR_SD_P07</t>
+  </si>
+  <si>
+    <t>AGR_SD_P08</t>
+  </si>
+  <si>
+    <t>AGR_AnnualCropProduction</t>
+  </si>
+  <si>
+    <t>\APR - SD - AlicahueLosPerales</t>
+  </si>
+  <si>
+    <t>\APR - SD - BartolilloPaihuen</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaVegaLaVina</t>
+  </si>
+  <si>
+    <t>\APR - SD - LosMolinos</t>
+  </si>
+  <si>
+    <t>\APR - SD - SanLorenzo</t>
+  </si>
+  <si>
+    <t>\APR - SD - Algarrobo</t>
+  </si>
+  <si>
+    <t>\APR - SD - ElQuemado</t>
+  </si>
+  <si>
+    <t>\APR - SD - Guayacan</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaMora</t>
+  </si>
+  <si>
+    <t>\APR - SD - LasPuertas</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaHiguera</t>
+  </si>
+  <si>
+    <t>\APR - SD - PenablancaMontegrande</t>
+  </si>
+  <si>
+    <t>\APR - SD - SanJose</t>
+  </si>
+  <si>
+    <t>\APR - SD - ElCarmen</t>
+  </si>
+  <si>
+    <t>\APR - SD - PuenteTalanquen</t>
+  </si>
+  <si>
+    <t>\APR - SD - QuebradillaLosMaitenes</t>
+  </si>
+  <si>
+    <t>\APR - SD - ValleHermoso</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaCapillaRocoAlto</t>
+  </si>
+  <si>
+    <t>\APR - SD - LosCorrales</t>
+  </si>
+  <si>
+    <t>\APR - SD - PasoOscuro</t>
+  </si>
+  <si>
+    <t>\APR - SD - QuebradadelCepo</t>
+  </si>
+  <si>
+    <t>\APR - SD - LasSalinas</t>
+  </si>
+  <si>
+    <t>\APR - SD - CalleLarga</t>
+  </si>
+  <si>
+    <t>\APR - SD - Chalaco</t>
+  </si>
+  <si>
+    <t>\APR - SD - Pedernal</t>
+  </si>
+  <si>
+    <t>\APR - SD - ElSobrante</t>
+  </si>
+  <si>
+    <t>\APR - SD - ValleLosOlmos</t>
+  </si>
+  <si>
+    <t>\APR - SD - BronceElDuraznoUnido</t>
+  </si>
+  <si>
+    <t>\APR - SD - HierroViejo</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaCanelilla</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaNipa</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaPolcura</t>
+  </si>
+  <si>
+    <t>\APR - SD - LosComunes</t>
+  </si>
+  <si>
+    <t>\APR - SD - ManuelMontt</t>
+  </si>
+  <si>
+    <t>\APR - SD - QuebradadeCastro</t>
+  </si>
+  <si>
+    <t>\APR - SD - SorTeresitadeSantaJulia</t>
+  </si>
+  <si>
+    <t>\APR - SD - VillaAlbertoCallejas</t>
+  </si>
+  <si>
+    <t>\APR - SD - ElManzano</t>
+  </si>
+  <si>
+    <t>\APR - SD - FrutillarAlto</t>
+  </si>
+  <si>
+    <t>\APR - SD - FrutillarBajo</t>
+  </si>
+  <si>
+    <t>\APR - SD - LasPalmas</t>
+  </si>
+  <si>
+    <t>\APR - SD - Palquico</t>
+  </si>
+  <si>
+    <t>\APR - SD - ArtificioParadero4</t>
+  </si>
+  <si>
+    <t>\APR - SD - ArtificiodePedegua</t>
+  </si>
+  <si>
+    <t>\APR - SD - ElFrancesSanRamon</t>
+  </si>
+  <si>
+    <t>\APR - SD - LaCanela</t>
+  </si>
+  <si>
+    <t>\APR - SD - MaitenLargo</t>
+  </si>
+  <si>
+    <t>\APR - SD - PadreHurtado</t>
+  </si>
+  <si>
+    <t>\APR - SD - ParcelasSanManuelLaVictoria</t>
+  </si>
+  <si>
+    <t>\APR - SD - Pedegua</t>
+  </si>
+  <si>
+    <t>\APR - SD - Pullancon</t>
+  </si>
+  <si>
+    <t>\APR - SD - QuebradaHondaArtificio</t>
+  </si>
+  <si>
+    <t>\APR - SD - SanLorenzoCasasViejas</t>
+  </si>
+  <si>
+    <t>\APR - SD - SantaMarta</t>
+  </si>
+  <si>
+    <t>\APR - SD - TrapicheLongotoma</t>
+  </si>
+  <si>
+    <t>\APU - SD - Cabildo</t>
+  </si>
+  <si>
+    <t>\APU - SD - Chincolco</t>
+  </si>
+  <si>
+    <t>\APU - SD - LaLigua</t>
+  </si>
+  <si>
+    <t>\APU - SD - Petorca</t>
+  </si>
+  <si>
+    <t>\AP - Transmission Link FLow</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L01_Dem_AlicahueLosPerales</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L02_Dem_BartolilloPaihuen</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L02_Dem_LaVegaLaVina</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L02_Dem_LosMolinos</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L02_Dem_SanLorenzo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L05_Dem_Algarrobo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L05_Dem_ElQuemado</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L05_Dem_Guayacan</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L05_Dem_LaMora</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L05_Dem_LasPuertas</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L06_Dem_LaHiguera</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L06_Dem_PenablancaMontegrande</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L06_Dem_SanJose</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L09_Dem_ElCarmen</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L10_Dem_PuenteTalanquen</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L10_Dem_QuebradillaLosMaitenes</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L10_Dem_ValleHermoso</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L11_Dem_LaCapillaRocoAlto</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L11_Dem_LosCorrales</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L11_Dem_PasoOscuro</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L11_Dem_QuebradadelCepo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_L12_Dem_LasSalinas</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P01_Dem_CalleLarga</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P01_Dem_Chalaco</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P01_Dem_Pedernal</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P02_Dem_ElSobrante</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P02_Dem_ValleLosOlmos</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_BronceElDuraznoUnido</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_HierroViejo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_LaCanelilla</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_LaNipa</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_LaPolcura</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_LosComunes</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_ManuelMontt</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_QuebradadeCastro</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_SorTeresitadeSantaJulia</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P03_Dem_VillaAlbertoCallejas</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P07_Dem_ElManzano</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P07_Dem_FrutillarAlto</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P07_Dem_FrutillarBajo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P07_Dem_LasPalmas</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P07_Dem_Palquico</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_ArtificioParadero4</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_ArtificiodePedegua</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_ElFrancesSanRamon</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_LaCanela</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_MaitenLargo</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_PadreHurtado</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_ParcelasSanManuelLaVictoria</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_Pedegua</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_Pullancon</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_QuebradaHondaArtificio</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_SanLorenzoCasasViejas</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_SantaMarta</t>
+  </si>
+  <si>
+    <t>APR_SD_APR_P08_Dem_TrapicheLongotoma</t>
+  </si>
+  <si>
+    <t>APU_SD_Cabildo</t>
+  </si>
+  <si>
+    <t>APU_SD_Chincolco</t>
+  </si>
+  <si>
+    <t>APU_SD_LaLigua</t>
+  </si>
+  <si>
+    <t>APU_SD_Petorca</t>
+  </si>
+  <si>
+    <t>AP_TL</t>
+  </si>
+  <si>
+    <t>\AP - Water Demand</t>
+  </si>
+  <si>
+    <t>AP_WD</t>
+  </si>
+  <si>
+    <t>\AP - Operacion Pozos</t>
+  </si>
+  <si>
+    <t>\AP - Personas</t>
+  </si>
+  <si>
+    <t>\CEC - AlicahueEnColliguay</t>
+  </si>
+  <si>
+    <t>\CEC - PedernalEnTejada</t>
+  </si>
+  <si>
+    <t>\CEC - SobranteEnPinadero</t>
+  </si>
+  <si>
+    <t>CEC_SobranteEnPinadero</t>
+  </si>
+  <si>
+    <t>CEC_AlicahueEnColliguay</t>
+  </si>
+  <si>
+    <t>CEC_PedernalEnTejada</t>
+  </si>
+  <si>
+    <t>AP_Poblacion</t>
+  </si>
+  <si>
+    <t>AP_Operacion_Pozos</t>
+  </si>
+  <si>
+    <t>\AP - Unmet Demand</t>
+  </si>
+  <si>
+    <t>AP_UD</t>
+  </si>
+  <si>
+    <t>\CEC - BajoEmbalseLaChupalla</t>
+  </si>
+  <si>
+    <t>\CEC - BajoEmbalseLosAngeles</t>
+  </si>
+  <si>
+    <t>\CEC - BajoEmbalsePedernal</t>
+  </si>
+  <si>
+    <t>\CEC - BajoEmbalseLasPalmas</t>
+  </si>
+  <si>
+    <t>\CA - Caudales en desembocadura</t>
+  </si>
+  <si>
+    <t>\IRA - Caudales_SHAC</t>
+  </si>
+  <si>
+    <t>CEC_BajoEmbalseLaChupalla</t>
+  </si>
+  <si>
+    <t>CEC_BajoEmbalseLosAngeles</t>
+  </si>
+  <si>
+    <t>CEC_BajoEmbalsePedernal</t>
+  </si>
+  <si>
+    <t>CEC_BajoEmbalseLasPalmas</t>
+  </si>
+  <si>
+    <t>CA_Desembocadura</t>
+  </si>
+  <si>
+    <t>IRA_CaudalesSHAC</t>
   </si>
 </sst>
 </file>
@@ -619,22 +1003,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC939AC8-092F-4C85-92F1-AFFD2910D7B3}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -659,17 +1047,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
-        <v>RDM\Annual Crop Production - Agricola</v>
+        <v>RDM\AGR - Area</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -677,17 +1065,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D27" si="0">_xlfn.CONCAT(B3:C3)</f>
-        <v>RDM\Area - Agricola_SB</v>
+        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>RDM\AGR - Daily Etp</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -695,17 +1083,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Area - Agricola_todo</v>
+        <v>RDM\AGR - Daily Eta</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -713,17 +1101,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
-        <v>RDM\Daily ET Actual - Agricola</v>
+        <v>RDM\AGR - Daily Irrigation_m3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -731,17 +1119,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Daily ET Potential - Agricola</v>
+        <v>RDM\AGR - Daily Irrigation_mm</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -749,17 +1137,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L05</v>
+        <v>RDM\AGR - SD - Agricola_L05</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -767,17 +1155,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L06</v>
+        <v>RDM\AGR - SD - Agricola_L06</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -785,17 +1173,17 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L07</v>
+        <v>RDM\AGR - SD - Agricola_L07</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -803,17 +1191,17 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L08</v>
+        <v>RDM\AGR - SD - Agricola_L08</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -821,17 +1209,17 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L09</v>
+        <v>RDM\AGR - SD - Agricola_L09</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -839,17 +1227,20 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_L10</v>
+        <v>RDM\AGR - SD - Agricola_L10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -857,17 +1248,20 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_P02</v>
+        <v>RDM\AGR - SD - Agricola_P02</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -875,17 +1269,20 @@
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>_xlfn.CONCAT(B14:C14)</f>
-        <v>RDM\Supply Delivered - Agricola_P05</v>
+        <v>RDM\AGR - SD - Agricola_P05</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -893,17 +1290,20 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_P06</v>
+        <v>RDM\AGR - SD - Agricola_P06</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -911,17 +1311,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_P07</v>
+        <v>RDM\AGR - SD - Agricola_P07</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -929,17 +1332,20 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - Agricola_P08</v>
+        <v>RDM\AGR - SD - Agricola_P08</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -947,17 +1353,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Unmet Demand - Agua Potable</v>
+        <f t="shared" ref="D18:D82" si="1">_xlfn.CONCAT(B18:C18)</f>
+        <v>RDM\AGR - Annual Crop Production</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -965,17 +1374,20 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APR - Comuna Petorca</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - AlicahueLosPerales</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -983,17 +1395,20 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APR - Comuna La Ligua</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - BartolilloPaihuen</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1001,17 +1416,20 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APR - Comuna Cabildo</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaVegaLaVina</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1019,17 +1437,20 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APR - Comuna Papudo</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LosMolinos</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1037,17 +1458,20 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APU - Cabildo</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - SanLorenzo</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1055,17 +1479,20 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APU - La Ligua</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Algarrobo</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1073,17 +1500,20 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APU - Chincolco</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ElQuemado</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1091,17 +1521,20 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Supply Delivered - APU - Petorca</v>
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Guayacan</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1109,15 +1542,1623 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaMora</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LasPuertas</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaHiguera</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - PenablancaMontegrande</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - SanJose</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ElCarmen</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - PuenteTalanquen</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - QuebradillaLosMaitenes</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RDM\Operacion Pozos - Agua Potable</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ValleHermoso</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaCapillaRocoAlto</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LosCorrales</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - PasoOscuro</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - QuebradadelCepo</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LasSalinas</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - CalleLarga</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Chalaco</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Pedernal</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ElSobrante</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ValleLosOlmos</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - BronceElDuraznoUnido</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - HierroViejo</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaCanelilla</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaNipa</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaPolcura</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LosComunes</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ManuelMontt</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - QuebradadeCastro</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - SorTeresitadeSantaJulia</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - VillaAlbertoCallejas</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ElManzano</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - FrutillarAlto</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - FrutillarBajo</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LasPalmas</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Palquico</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ArtificioParadero4</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ArtificiodePedegua</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ElFrancesSanRamon</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - LaCanela</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - MaitenLargo</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - PadreHurtado</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - ParcelasSanManuelLaVictoria</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Pedegua</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - Pullancon</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - QuebradaHondaArtificio</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - SanLorenzoCasasViejas</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - SantaMarta</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APR - SD - TrapicheLongotoma</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APU - SD - Cabildo</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APU - SD - Chincolco</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APU - SD - LaLigua</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\APU - SD - Petorca</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Transmission Link FLow</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Water Demand</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Unmet Demand</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Operacion Pozos</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Personas</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" ref="D83:D91" si="2">_xlfn.CONCAT(B83:C83)</f>
+        <v>RDM\CEC - SobranteEnPinadero</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - AlicahueEnColliguay</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - PedernalEnTejada</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - BajoEmbalseLaChupalla</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - BajoEmbalseLosAngeles</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - BajoEmbalsePedernal</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CEC - BajoEmbalseLasPalmas</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CA - Caudales en desembocadura</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\IRA - Caudales_SHAC</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="J118"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\Historico_LP\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC412F3-AAB7-40F8-8A8A-4C8C47608887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6FC25A-DAB7-476C-8B1B-B2211A0EE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="17004" yWindow="3444" windowWidth="17280" windowHeight="8880" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>IRA_CaudalesSHAC</t>
+  </si>
+  <si>
+    <t>AP_WD_Poblacion</t>
+  </si>
+  <si>
+    <t>\AP - WD_poblacion</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -684,6 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,18 +1010,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC939AC8-092F-4C85-92F1-AFFD2910D7B3}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D83" sqref="D2:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5546875" customWidth="1"/>
@@ -1049,7 +1056,7 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="7" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>RDM\AGR - Area</v>
       </c>
@@ -1067,7 +1074,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>RDM\AGR - Daily Etp</v>
       </c>
@@ -1085,7 +1092,7 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Eta</v>
       </c>
@@ -1103,7 +1110,7 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="7" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>RDM\AGR - Daily Irrigation_m3</v>
       </c>
@@ -1121,7 +1128,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_mm</v>
       </c>
@@ -1139,7 +1146,7 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L05</v>
       </c>
@@ -1157,7 +1164,7 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L06</v>
       </c>
@@ -1175,7 +1182,7 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L07</v>
       </c>
@@ -1193,7 +1200,7 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L08</v>
       </c>
@@ -1211,7 +1218,7 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L09</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L10</v>
       </c>
@@ -1250,7 +1257,7 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P02</v>
       </c>
@@ -1271,7 +1278,7 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="7" t="str">
         <f>_xlfn.CONCAT(B14:C14)</f>
         <v>RDM\AGR - SD - Agricola_P05</v>
       </c>
@@ -1292,7 +1299,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P06</v>
       </c>
@@ -1313,7 +1320,7 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P07</v>
       </c>
@@ -1334,7 +1341,7 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P08</v>
       </c>
@@ -1355,8 +1362,8 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" ref="D18:D82" si="1">_xlfn.CONCAT(B18:C18)</f>
+      <c r="D18" s="7" t="str">
+        <f t="shared" ref="D18:D83" si="1">_xlfn.CONCAT(B18:C18)</f>
         <v>RDM\AGR - Annual Crop Production</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1376,7 +1383,7 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - AlicahueLosPerales</v>
       </c>
@@ -1397,7 +1404,7 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - BartolilloPaihuen</v>
       </c>
@@ -1418,7 +1425,7 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaVegaLaVina</v>
       </c>
@@ -1439,7 +1446,7 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosMolinos</v>
       </c>
@@ -1460,7 +1467,7 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzo</v>
       </c>
@@ -1481,7 +1488,7 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Algarrobo</v>
       </c>
@@ -1502,7 +1509,7 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElQuemado</v>
       </c>
@@ -1523,7 +1530,7 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Guayacan</v>
       </c>
@@ -1544,7 +1551,7 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaMora</v>
       </c>
@@ -1565,7 +1572,7 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasPuertas</v>
       </c>
@@ -1586,7 +1593,7 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaHiguera</v>
       </c>
@@ -1607,7 +1614,7 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PenablancaMontegrande</v>
       </c>
@@ -1628,7 +1635,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanJose</v>
       </c>
@@ -1649,7 +1656,7 @@
       <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElCarmen</v>
       </c>
@@ -1670,7 +1677,7 @@
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PuenteTalanquen</v>
       </c>
@@ -1691,7 +1698,7 @@
       <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradillaLosMaitenes</v>
       </c>
@@ -1712,7 +1719,7 @@
       <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ValleHermoso</v>
       </c>
@@ -1733,7 +1740,7 @@
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCapillaRocoAlto</v>
       </c>
@@ -1754,7 +1761,7 @@
       <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosCorrales</v>
       </c>
@@ -1775,7 +1782,7 @@
       <c r="C38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PasoOscuro</v>
       </c>
@@ -1796,7 +1803,7 @@
       <c r="C39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradadelCepo</v>
       </c>
@@ -1817,7 +1824,7 @@
       <c r="C40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasSalinas</v>
       </c>
@@ -1838,7 +1845,7 @@
       <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - CalleLarga</v>
       </c>
@@ -1859,7 +1866,7 @@
       <c r="C42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Chalaco</v>
       </c>
@@ -1880,7 +1887,7 @@
       <c r="C43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedernal</v>
       </c>
@@ -1901,7 +1908,7 @@
       <c r="C44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElSobrante</v>
       </c>
@@ -1922,7 +1929,7 @@
       <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ValleLosOlmos</v>
       </c>
@@ -1943,7 +1950,7 @@
       <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - BronceElDuraznoUnido</v>
       </c>
@@ -1964,7 +1971,7 @@
       <c r="C47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - HierroViejo</v>
       </c>
@@ -1985,7 +1992,7 @@
       <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCanelilla</v>
       </c>
@@ -2006,7 +2013,7 @@
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaNipa</v>
       </c>
@@ -2027,7 +2034,7 @@
       <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaPolcura</v>
       </c>
@@ -2048,7 +2055,7 @@
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosComunes</v>
       </c>
@@ -2069,7 +2076,7 @@
       <c r="C52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ManuelMontt</v>
       </c>
@@ -2090,7 +2097,7 @@
       <c r="C53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradadeCastro</v>
       </c>
@@ -2111,7 +2118,7 @@
       <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SorTeresitadeSantaJulia</v>
       </c>
@@ -2132,7 +2139,7 @@
       <c r="C55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - VillaAlbertoCallejas</v>
       </c>
@@ -2153,7 +2160,7 @@
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElManzano</v>
       </c>
@@ -2174,7 +2181,7 @@
       <c r="C57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - FrutillarAlto</v>
       </c>
@@ -2195,7 +2202,7 @@
       <c r="C58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - FrutillarBajo</v>
       </c>
@@ -2216,7 +2223,7 @@
       <c r="C59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasPalmas</v>
       </c>
@@ -2237,7 +2244,7 @@
       <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Palquico</v>
       </c>
@@ -2258,7 +2265,7 @@
       <c r="C61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ArtificioParadero4</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ArtificiodePedegua</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElFrancesSanRamon</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCanela</v>
       </c>
@@ -2342,7 +2349,7 @@
       <c r="C65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - MaitenLargo</v>
       </c>
@@ -2363,7 +2370,7 @@
       <c r="C66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PadreHurtado</v>
       </c>
@@ -2384,7 +2391,7 @@
       <c r="C67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ParcelasSanManuelLaVictoria</v>
       </c>
@@ -2405,7 +2412,7 @@
       <c r="C68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedegua</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="C69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pullancon</v>
       </c>
@@ -2447,7 +2454,7 @@
       <c r="C70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradaHondaArtificio</v>
       </c>
@@ -2468,7 +2475,7 @@
       <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzoCasasViejas</v>
       </c>
@@ -2489,7 +2496,7 @@
       <c r="C72" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SantaMarta</v>
       </c>
@@ -2510,7 +2517,7 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - TrapicheLongotoma</v>
       </c>
@@ -2531,7 +2538,7 @@
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Cabildo</v>
       </c>
@@ -2552,7 +2559,7 @@
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Chincolco</v>
       </c>
@@ -2573,7 +2580,7 @@
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - LaLigua</v>
       </c>
@@ -2594,7 +2601,7 @@
       <c r="C77" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Petorca</v>
       </c>
@@ -2615,7 +2622,7 @@
       <c r="C78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Transmission Link FLow</v>
       </c>
@@ -2634,14 +2641,14 @@
         <v>2</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\AP - Water Demand</v>
+        <v>187</v>
+      </c>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - WD_poblacion</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -2655,14 +2662,14 @@
         <v>2</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\AP - Unmet Demand</v>
+        <v>160</v>
+      </c>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Water Demand</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -2676,14 +2683,14 @@
         <v>2</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\AP - Operacion Pozos</v>
+        <v>172</v>
+      </c>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Unmet Demand</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -2697,14 +2704,14 @@
         <v>2</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\AP - Personas</v>
+        <v>162</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Operacion Pozos</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -2718,14 +2725,14 @@
         <v>2</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="4" t="str">
-        <f t="shared" ref="D83:D91" si="2">_xlfn.CONCAT(B83:C83)</f>
-        <v>RDM\CEC - SobranteEnPinadero</v>
+        <v>163</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\AP - Personas</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -2739,14 +2746,14 @@
         <v>2</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CEC - AlicahueEnColliguay</v>
+        <f t="shared" ref="D84:D92" si="2">_xlfn.CONCAT(B84:C84)</f>
+        <v>RDM\CEC - SobranteEnPinadero</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -2760,15 +2767,16 @@
         <v>2</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CEC - PedernalEnTejada</v>
+        <v>RDM\CEC - AlicahueEnColliguay</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G85"/>
       <c r="H85"/>
       <c r="J85"/>
     </row>
@@ -2780,14 +2788,14 @@
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CEC - BajoEmbalseLaChupalla</v>
+        <v>RDM\CEC - PedernalEnTejada</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H86"/>
       <c r="J86"/>
@@ -2800,14 +2808,14 @@
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CEC - BajoEmbalseLosAngeles</v>
+        <v>RDM\CEC - BajoEmbalseLaChupalla</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H87"/>
       <c r="J87"/>
@@ -2820,14 +2828,14 @@
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CEC - BajoEmbalsePedernal</v>
+        <v>RDM\CEC - BajoEmbalseLosAngeles</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H88"/>
       <c r="J88"/>
@@ -2840,14 +2848,14 @@
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CEC - BajoEmbalseLasPalmas</v>
+        <v>RDM\CEC - BajoEmbalsePedernal</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H89"/>
       <c r="J89"/>
@@ -2860,14 +2868,14 @@
         <v>2</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D90" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\CA - Caudales en desembocadura</v>
+        <v>RDM\CEC - BajoEmbalseLasPalmas</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H90"/>
       <c r="J90"/>
@@ -2880,24 +2888,36 @@
         <v>2</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\IRA - Caudales_SHAC</v>
+        <v>RDM\CA - Caudales en desembocadura</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H91"/>
       <c r="J91"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\IRA - Caudales_SHAC</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H92"/>
       <c r="J92"/>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2906,8 +2926,6 @@
       <c r="C93" s="5"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="G93"/>
-      <c r="H93"/>
       <c r="J93"/>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3160,6 +3178,16 @@
       <c r="H118"/>
       <c r="J118"/>
     </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="J119"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Suárez P\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6FC25A-DAB7-476C-8B1B-B2211A0EE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17004" yWindow="3444" windowWidth="17280" windowHeight="8880" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="3870"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -599,12 +598,48 @@
   </si>
   <si>
     <t>\AP - WD_poblacion</t>
+  </si>
+  <si>
+    <t>\CT-A_TodasAprs</t>
+  </si>
+  <si>
+    <t>CT-A_TodasAprs</t>
+  </si>
+  <si>
+    <t>\CT-C_TodasAprs</t>
+  </si>
+  <si>
+    <t>CT-C_TodasAprs</t>
+  </si>
+  <si>
+    <t>\CT-D_AprsLigua</t>
+  </si>
+  <si>
+    <t>CT-D_AprsLigua</t>
+  </si>
+  <si>
+    <t>\CT-D_AprsPetorca</t>
+  </si>
+  <si>
+    <t>CT-D_AprsPetorca</t>
+  </si>
+  <si>
+    <t>\CT-P_AprsLigua</t>
+  </si>
+  <si>
+    <t>\CT-P_AprsPetorca</t>
+  </si>
+  <si>
+    <t>CT-P_AprsLigua</t>
+  </si>
+  <si>
+    <t>CT-P_AprsPetorca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -690,7 +725,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1009,27 +1043,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC939AC8-092F-4C85-92F1-AFFD2910D7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D83" sqref="D2:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D97" sqref="D96:D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1056,7 +1090,7 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="4" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>RDM\AGR - Area</v>
       </c>
@@ -1064,7 +1098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1074,7 +1108,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>RDM\AGR - Daily Etp</v>
       </c>
@@ -1082,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1092,7 +1126,7 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Eta</v>
       </c>
@@ -1100,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1110,7 +1144,7 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="4" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>RDM\AGR - Daily Irrigation_m3</v>
       </c>
@@ -1118,7 +1152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1128,7 +1162,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_mm</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1146,7 +1180,7 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L05</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1164,7 +1198,7 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L06</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1182,7 +1216,7 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L07</v>
       </c>
@@ -1190,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1200,7 +1234,7 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L08</v>
       </c>
@@ -1208,7 +1242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1218,7 +1252,7 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L09</v>
       </c>
@@ -1226,7 +1260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1236,7 +1270,7 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L10</v>
       </c>
@@ -1247,7 +1281,7 @@
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1257,7 +1291,7 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P02</v>
       </c>
@@ -1268,7 +1302,7 @@
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1278,7 +1312,7 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="4" t="str">
         <f>_xlfn.CONCAT(B14:C14)</f>
         <v>RDM\AGR - SD - Agricola_P05</v>
       </c>
@@ -1289,7 +1323,7 @@
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1299,7 +1333,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P06</v>
       </c>
@@ -1310,7 +1344,7 @@
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1320,7 +1354,7 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P07</v>
       </c>
@@ -1331,7 +1365,7 @@
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1341,7 +1375,7 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P08</v>
       </c>
@@ -1352,7 +1386,7 @@
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1362,7 +1396,7 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" ref="D18:D83" si="1">_xlfn.CONCAT(B18:C18)</f>
         <v>RDM\AGR - Annual Crop Production</v>
       </c>
@@ -1373,7 +1407,7 @@
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1383,7 +1417,7 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - AlicahueLosPerales</v>
       </c>
@@ -1394,7 +1428,7 @@
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1404,7 +1438,7 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - BartolilloPaihuen</v>
       </c>
@@ -1415,7 +1449,7 @@
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1425,7 +1459,7 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaVegaLaVina</v>
       </c>
@@ -1436,7 +1470,7 @@
       <c r="H21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1446,7 +1480,7 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosMolinos</v>
       </c>
@@ -1457,7 +1491,7 @@
       <c r="H22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1467,7 +1501,7 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzo</v>
       </c>
@@ -1478,7 +1512,7 @@
       <c r="H23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1488,7 +1522,7 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Algarrobo</v>
       </c>
@@ -1499,7 +1533,7 @@
       <c r="H24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1509,7 +1543,7 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElQuemado</v>
       </c>
@@ -1520,7 +1554,7 @@
       <c r="H25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1530,7 +1564,7 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Guayacan</v>
       </c>
@@ -1541,7 +1575,7 @@
       <c r="H26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1551,7 +1585,7 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaMora</v>
       </c>
@@ -1562,7 +1596,7 @@
       <c r="H27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1572,7 +1606,7 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasPuertas</v>
       </c>
@@ -1583,7 +1617,7 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1593,7 +1627,7 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaHiguera</v>
       </c>
@@ -1604,7 +1638,7 @@
       <c r="H29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1614,7 +1648,7 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PenablancaMontegrande</v>
       </c>
@@ -1625,7 +1659,7 @@
       <c r="H30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1635,7 +1669,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanJose</v>
       </c>
@@ -1646,7 +1680,7 @@
       <c r="H31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1656,7 +1690,7 @@
       <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="7" t="str">
+      <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElCarmen</v>
       </c>
@@ -1667,7 +1701,7 @@
       <c r="H32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1677,7 +1711,7 @@
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PuenteTalanquen</v>
       </c>
@@ -1688,7 +1722,7 @@
       <c r="H33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1698,7 +1732,7 @@
       <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradillaLosMaitenes</v>
       </c>
@@ -1709,7 +1743,7 @@
       <c r="H34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1719,7 +1753,7 @@
       <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ValleHermoso</v>
       </c>
@@ -1730,7 +1764,7 @@
       <c r="H35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1740,7 +1774,7 @@
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="7" t="str">
+      <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCapillaRocoAlto</v>
       </c>
@@ -1751,7 +1785,7 @@
       <c r="H36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1761,7 +1795,7 @@
       <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosCorrales</v>
       </c>
@@ -1772,7 +1806,7 @@
       <c r="H37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1782,7 +1816,7 @@
       <c r="C38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="7" t="str">
+      <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PasoOscuro</v>
       </c>
@@ -1793,7 +1827,7 @@
       <c r="H38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1803,7 +1837,7 @@
       <c r="C39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradadelCepo</v>
       </c>
@@ -1814,7 +1848,7 @@
       <c r="H39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1824,7 +1858,7 @@
       <c r="C40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="7" t="str">
+      <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasSalinas</v>
       </c>
@@ -1835,7 +1869,7 @@
       <c r="H40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1845,7 +1879,7 @@
       <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - CalleLarga</v>
       </c>
@@ -1856,7 +1890,7 @@
       <c r="H41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1866,7 +1900,7 @@
       <c r="C42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="7" t="str">
+      <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Chalaco</v>
       </c>
@@ -1877,7 +1911,7 @@
       <c r="H42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1887,7 +1921,7 @@
       <c r="C43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedernal</v>
       </c>
@@ -1898,7 +1932,7 @@
       <c r="H43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1908,7 +1942,7 @@
       <c r="C44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElSobrante</v>
       </c>
@@ -1919,7 +1953,7 @@
       <c r="H44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1929,7 +1963,7 @@
       <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ValleLosOlmos</v>
       </c>
@@ -1940,7 +1974,7 @@
       <c r="H45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1950,7 +1984,7 @@
       <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - BronceElDuraznoUnido</v>
       </c>
@@ -1961,7 +1995,7 @@
       <c r="H46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1971,7 +2005,7 @@
       <c r="C47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - HierroViejo</v>
       </c>
@@ -1982,7 +2016,7 @@
       <c r="H47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1992,7 +2026,7 @@
       <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="7" t="str">
+      <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCanelilla</v>
       </c>
@@ -2003,7 +2037,7 @@
       <c r="H48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2013,7 +2047,7 @@
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="7" t="str">
+      <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaNipa</v>
       </c>
@@ -2024,7 +2058,7 @@
       <c r="H49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2034,7 +2068,7 @@
       <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="7" t="str">
+      <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaPolcura</v>
       </c>
@@ -2045,7 +2079,7 @@
       <c r="H50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2055,7 +2089,7 @@
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="7" t="str">
+      <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LosComunes</v>
       </c>
@@ -2066,7 +2100,7 @@
       <c r="H51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2076,7 +2110,7 @@
       <c r="C52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="7" t="str">
+      <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ManuelMontt</v>
       </c>
@@ -2087,7 +2121,7 @@
       <c r="H52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2097,7 +2131,7 @@
       <c r="C53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradadeCastro</v>
       </c>
@@ -2108,7 +2142,7 @@
       <c r="H53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2118,7 +2152,7 @@
       <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SorTeresitadeSantaJulia</v>
       </c>
@@ -2129,7 +2163,7 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2139,7 +2173,7 @@
       <c r="C55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - VillaAlbertoCallejas</v>
       </c>
@@ -2150,7 +2184,7 @@
       <c r="H55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2160,7 +2194,7 @@
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElManzano</v>
       </c>
@@ -2171,7 +2205,7 @@
       <c r="H56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2181,7 +2215,7 @@
       <c r="C57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - FrutillarAlto</v>
       </c>
@@ -2192,7 +2226,7 @@
       <c r="H57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2202,7 +2236,7 @@
       <c r="C58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - FrutillarBajo</v>
       </c>
@@ -2213,7 +2247,7 @@
       <c r="H58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2223,7 +2257,7 @@
       <c r="C59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="7" t="str">
+      <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LasPalmas</v>
       </c>
@@ -2234,7 +2268,7 @@
       <c r="H59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2244,7 +2278,7 @@
       <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="7" t="str">
+      <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Palquico</v>
       </c>
@@ -2255,7 +2289,7 @@
       <c r="H60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2265,7 +2299,7 @@
       <c r="C61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ArtificioParadero4</v>
       </c>
@@ -2276,7 +2310,7 @@
       <c r="H61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2286,7 +2320,7 @@
       <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="7" t="str">
+      <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ArtificiodePedegua</v>
       </c>
@@ -2297,7 +2331,7 @@
       <c r="H62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2307,7 +2341,7 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ElFrancesSanRamon</v>
       </c>
@@ -2318,7 +2352,7 @@
       <c r="H63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2328,7 +2362,7 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="7" t="str">
+      <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - LaCanela</v>
       </c>
@@ -2339,7 +2373,7 @@
       <c r="H64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2349,7 +2383,7 @@
       <c r="C65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="7" t="str">
+      <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - MaitenLargo</v>
       </c>
@@ -2360,7 +2394,7 @@
       <c r="H65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2370,7 +2404,7 @@
       <c r="C66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="7" t="str">
+      <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - PadreHurtado</v>
       </c>
@@ -2381,7 +2415,7 @@
       <c r="H66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2391,7 +2425,7 @@
       <c r="C67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="7" t="str">
+      <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - ParcelasSanManuelLaVictoria</v>
       </c>
@@ -2402,7 +2436,7 @@
       <c r="H67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2412,7 +2446,7 @@
       <c r="C68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="7" t="str">
+      <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedegua</v>
       </c>
@@ -2423,7 +2457,7 @@
       <c r="H68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2433,7 +2467,7 @@
       <c r="C69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="7" t="str">
+      <c r="D69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pullancon</v>
       </c>
@@ -2444,7 +2478,7 @@
       <c r="H69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2454,7 +2488,7 @@
       <c r="C70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="7" t="str">
+      <c r="D70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradaHondaArtificio</v>
       </c>
@@ -2465,7 +2499,7 @@
       <c r="H70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2475,7 +2509,7 @@
       <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="7" t="str">
+      <c r="D71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzoCasasViejas</v>
       </c>
@@ -2486,7 +2520,7 @@
       <c r="H71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2496,7 +2530,7 @@
       <c r="C72" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="7" t="str">
+      <c r="D72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SantaMarta</v>
       </c>
@@ -2507,7 +2541,7 @@
       <c r="H72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2517,7 +2551,7 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="7" t="str">
+      <c r="D73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - TrapicheLongotoma</v>
       </c>
@@ -2528,7 +2562,7 @@
       <c r="H73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2538,7 +2572,7 @@
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="7" t="str">
+      <c r="D74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Cabildo</v>
       </c>
@@ -2549,7 +2583,7 @@
       <c r="H74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2559,7 +2593,7 @@
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="7" t="str">
+      <c r="D75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Chincolco</v>
       </c>
@@ -2570,7 +2604,7 @@
       <c r="H75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2580,7 +2614,7 @@
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="7" t="str">
+      <c r="D76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - LaLigua</v>
       </c>
@@ -2591,7 +2625,7 @@
       <c r="H76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2601,7 +2635,7 @@
       <c r="C77" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Petorca</v>
       </c>
@@ -2612,7 +2646,7 @@
       <c r="H77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2622,7 +2656,7 @@
       <c r="C78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Transmission Link FLow</v>
       </c>
@@ -2633,7 +2667,7 @@
       <c r="H78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2643,7 +2677,7 @@
       <c r="C79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="7" t="str">
+      <c r="D79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - WD_poblacion</v>
       </c>
@@ -2654,7 +2688,7 @@
       <c r="H79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2664,7 +2698,7 @@
       <c r="C80" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="7" t="str">
+      <c r="D80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Water Demand</v>
       </c>
@@ -2675,7 +2709,7 @@
       <c r="H80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2685,7 +2719,7 @@
       <c r="C81" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="7" t="str">
+      <c r="D81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Unmet Demand</v>
       </c>
@@ -2696,7 +2730,7 @@
       <c r="H81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2706,7 +2740,7 @@
       <c r="C82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="7" t="str">
+      <c r="D82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Operacion Pozos</v>
       </c>
@@ -2717,7 +2751,7 @@
       <c r="H82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2727,7 +2761,7 @@
       <c r="C83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="7" t="str">
+      <c r="D83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Personas</v>
       </c>
@@ -2738,7 +2772,7 @@
       <c r="H83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2749,7 +2783,7 @@
         <v>166</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f t="shared" ref="D84:D92" si="2">_xlfn.CONCAT(B84:C84)</f>
+        <f t="shared" ref="D84:D98" si="2">_xlfn.CONCAT(B84:C84)</f>
         <v>RDM\CEC - SobranteEnPinadero</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -2759,7 +2793,7 @@
       <c r="H84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2780,7 +2814,7 @@
       <c r="H85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -2800,7 +2834,7 @@
       <c r="H86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -2820,7 +2854,7 @@
       <c r="H87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2840,7 +2874,7 @@
       <c r="H88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -2860,7 +2894,7 @@
       <c r="H89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -2880,7 +2914,7 @@
       <c r="H90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2900,7 +2934,7 @@
       <c r="H91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2908,77 +2942,143 @@
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>RDM\IRA - Caudales_SHAC</v>
+        <v>RDM\CT-A_TodasAprs</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CT-C_TodasAprs</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CT-D_AprsLigua</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CT-D_AprsPetorca</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CT-P_AprsLigua</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\CT-P_AprsPetorca</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>RDM\IRA - Caudales_SHAC</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="G98"/>
       <c r="H98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -2988,7 +3088,7 @@
       <c r="H99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -2998,7 +3098,7 @@
       <c r="H100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -3008,7 +3108,7 @@
       <c r="H101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -3018,7 +3118,7 @@
       <c r="H102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -3028,7 +3128,7 @@
       <c r="H103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -3038,7 +3138,7 @@
       <c r="H104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -3048,7 +3148,7 @@
       <c r="H105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -3058,7 +3158,7 @@
       <c r="H106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -3068,7 +3168,7 @@
       <c r="H107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -3078,7 +3178,7 @@
       <c r="H108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -3088,7 +3188,7 @@
       <c r="H109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -3098,7 +3198,7 @@
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -3108,7 +3208,7 @@
       <c r="H111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -3118,7 +3218,7 @@
       <c r="H112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -3128,7 +3228,7 @@
       <c r="H113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -3138,7 +3238,7 @@
       <c r="H114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -3148,7 +3248,7 @@
       <c r="H115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -3158,7 +3258,7 @@
       <c r="H116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -3168,7 +3268,7 @@
       <c r="H117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -3178,7 +3278,7 @@
       <c r="H118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Suárez P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Suárez P\Desktop\GitHub - KT\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="3870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -600,47 +600,62 @@
     <t>\AP - WD_poblacion</t>
   </si>
   <si>
-    <t>\CT-A_TodasAprs</t>
-  </si>
-  <si>
     <t>CT-A_TodasAprs</t>
   </si>
   <si>
-    <t>\CT-C_TodasAprs</t>
-  </si>
-  <si>
     <t>CT-C_TodasAprs</t>
   </si>
   <si>
-    <t>\CT-D_AprsLigua</t>
-  </si>
-  <si>
-    <t>CT-D_AprsLigua</t>
-  </si>
-  <si>
-    <t>\CT-D_AprsPetorca</t>
-  </si>
-  <si>
-    <t>CT-D_AprsPetorca</t>
-  </si>
-  <si>
-    <t>\CT-P_AprsLigua</t>
-  </si>
-  <si>
-    <t>\CT-P_AprsPetorca</t>
-  </si>
-  <si>
-    <t>CT-P_AprsLigua</t>
-  </si>
-  <si>
-    <t>CT-P_AprsPetorca</t>
+    <t>Costos Aduccion APR</t>
+  </si>
+  <si>
+    <t>\TODAS APR</t>
+  </si>
+  <si>
+    <t>Costos Agricolas</t>
+  </si>
+  <si>
+    <t>\Costo de Bombeo - pozos agricolas</t>
+  </si>
+  <si>
+    <t>Costos Bombeo APR</t>
+  </si>
+  <si>
+    <t>Costos Camiones Aljibes</t>
+  </si>
+  <si>
+    <t>Costos Desalacion</t>
+  </si>
+  <si>
+    <t>\TODAS Agro</t>
+  </si>
+  <si>
+    <t>\Factor de reduccion de bombeo</t>
+  </si>
+  <si>
+    <t>Factor_reduccion_bombeo</t>
+  </si>
+  <si>
+    <t>CT-D_TodasAprs</t>
+  </si>
+  <si>
+    <t>CT-D_Agro</t>
+  </si>
+  <si>
+    <t>CT-P_TodasAprs</t>
+  </si>
+  <si>
+    <t>CT-P_Agro</t>
+  </si>
+  <si>
+    <t>\Todas APR y APU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +686,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -725,6 +754,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,19 +1080,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D97" sqref="D96:D97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -1073,10 +1109,10 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1090,11 +1126,11 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="str">
-        <f>_xlfn.CONCAT(B2:C2)</f>
+      <c r="D2" s="8" t="str">
+        <f>CONCATENATE(B2,C2)</f>
         <v>RDM\AGR - Area</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1108,11 +1144,11 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(B3:C3)</f>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,C3)</f>
         <v>RDM\AGR - Daily Etp</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1126,11 +1162,11 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Eta</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1144,11 +1180,11 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f>_xlfn.CONCAT(B5:C5)</f>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_m3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1162,11 +1198,11 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_mm</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1180,11 +1216,11 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L05</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1198,11 +1234,11 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L06</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1216,11 +1252,11 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L07</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1234,11 +1270,11 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L08</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1252,11 +1288,11 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L09</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1270,11 +1306,11 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G12"/>
@@ -1291,11 +1327,11 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P02</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G13"/>
@@ -1312,11 +1348,11 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="str">
-        <f>_xlfn.CONCAT(B14:C14)</f>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P05</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G14"/>
@@ -1333,11 +1369,11 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P06</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G15"/>
@@ -1354,11 +1390,11 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P07</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G16"/>
@@ -1375,11 +1411,11 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P08</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G17"/>
@@ -1396,11 +1432,11 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" ref="D18:D83" si="1">_xlfn.CONCAT(B18:C18)</f>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\AGR - Annual Crop Production</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G18"/>
@@ -1417,11 +1453,11 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - AlicahueLosPerales</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G19"/>
@@ -1438,11 +1474,11 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - BartolilloPaihuen</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G20"/>
@@ -1459,11 +1495,11 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaVegaLaVina</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G21"/>
@@ -1480,11 +1516,11 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosMolinos</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G22"/>
@@ -1501,11 +1537,11 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - SanLorenzo</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G23"/>
@@ -1522,11 +1558,11 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - Algarrobo</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>105</v>
       </c>
       <c r="G24"/>
@@ -1543,11 +1579,11 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElQuemado</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G25"/>
@@ -1564,11 +1600,11 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D26" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - Guayacan</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G26"/>
@@ -1585,11 +1621,11 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaMora</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G27"/>
@@ -1606,11 +1642,11 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D28" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasPuertas</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G28"/>
@@ -1627,11 +1663,11 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaHiguera</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G29"/>
@@ -1648,11 +1684,11 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D30" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - PenablancaMontegrande</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="8" t="s">
         <v>111</v>
       </c>
       <c r="G30"/>
@@ -1669,11 +1705,11 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D31" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - SanJose</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="8" t="s">
         <v>112</v>
       </c>
       <c r="G31"/>
@@ -1690,11 +1726,11 @@
       <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D32" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElCarmen</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G32"/>
@@ -1711,11 +1747,11 @@
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D33" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - PuenteTalanquen</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G33"/>
@@ -1732,11 +1768,11 @@
       <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D34" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradillaLosMaitenes</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="8" t="s">
         <v>115</v>
       </c>
       <c r="G34"/>
@@ -1753,11 +1789,11 @@
       <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D35" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ValleHermoso</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="8" t="s">
         <v>116</v>
       </c>
       <c r="G35"/>
@@ -1774,11 +1810,11 @@
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D36" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCapillaRocoAlto</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G36"/>
@@ -1795,11 +1831,11 @@
       <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosCorrales</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="8" t="s">
         <v>118</v>
       </c>
       <c r="G37"/>
@@ -1816,11 +1852,11 @@
       <c r="C38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - PasoOscuro</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="8" t="s">
         <v>119</v>
       </c>
       <c r="G38"/>
@@ -1837,11 +1873,11 @@
       <c r="C39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradadelCepo</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="8" t="s">
         <v>120</v>
       </c>
       <c r="G39"/>
@@ -1858,11 +1894,11 @@
       <c r="C40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasSalinas</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G40"/>
@@ -1879,11 +1915,11 @@
       <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D41" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - CalleLarga</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="8" t="s">
         <v>122</v>
       </c>
       <c r="G41"/>
@@ -1900,11 +1936,11 @@
       <c r="C42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D42" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - Chalaco</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G42"/>
@@ -1921,11 +1957,11 @@
       <c r="C43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D43" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - Pedernal</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="8" t="s">
         <v>124</v>
       </c>
       <c r="G43"/>
@@ -1942,11 +1978,11 @@
       <c r="C44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D44" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElSobrante</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G44"/>
@@ -1963,11 +1999,11 @@
       <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D45" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ValleLosOlmos</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="8" t="s">
         <v>126</v>
       </c>
       <c r="G45"/>
@@ -1984,11 +2020,11 @@
       <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - BronceElDuraznoUnido</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G46"/>
@@ -2005,11 +2041,11 @@
       <c r="C47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - HierroViejo</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G47"/>
@@ -2026,11 +2062,11 @@
       <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D48" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCanelilla</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="8" t="s">
         <v>129</v>
       </c>
       <c r="G48"/>
@@ -2047,11 +2083,11 @@
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaNipa</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="8" t="s">
         <v>130</v>
       </c>
       <c r="G49"/>
@@ -2068,11 +2104,11 @@
       <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D50" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaPolcura</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G50"/>
@@ -2089,11 +2125,11 @@
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D51" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosComunes</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G51"/>
@@ -2110,11 +2146,11 @@
       <c r="C52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D52" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ManuelMontt</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G52"/>
@@ -2131,11 +2167,11 @@
       <c r="C53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D53" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradadeCastro</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G53"/>
@@ -2152,11 +2188,11 @@
       <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D54" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - SorTeresitadeSantaJulia</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="8" t="s">
         <v>135</v>
       </c>
       <c r="G54"/>
@@ -2173,11 +2209,11 @@
       <c r="C55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D55" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - VillaAlbertoCallejas</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G55"/>
@@ -2194,11 +2230,11 @@
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D56" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElManzano</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G56"/>
@@ -2215,11 +2251,11 @@
       <c r="C57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D57" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - FrutillarAlto</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G57"/>
@@ -2236,11 +2272,11 @@
       <c r="C58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - FrutillarBajo</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G58"/>
@@ -2257,11 +2293,11 @@
       <c r="C59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D59" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasPalmas</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="8" t="s">
         <v>140</v>
       </c>
       <c r="G59"/>
@@ -2278,11 +2314,11 @@
       <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D60" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - Palquico</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="8" t="s">
         <v>141</v>
       </c>
       <c r="G60"/>
@@ -2299,11 +2335,11 @@
       <c r="C61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D61" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ArtificioParadero4</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G61"/>
@@ -2320,11 +2356,11 @@
       <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D62" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ArtificiodePedegua</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="8" t="s">
         <v>143</v>
       </c>
       <c r="G62"/>
@@ -2341,11 +2377,11 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D63" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElFrancesSanRamon</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="8" t="s">
         <v>144</v>
       </c>
       <c r="G63"/>
@@ -2362,11 +2398,11 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D64" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCanela</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G64"/>
@@ -2383,11 +2419,11 @@
       <c r="C65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D65" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - MaitenLargo</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="8" t="s">
         <v>146</v>
       </c>
       <c r="G65"/>
@@ -2404,11 +2440,11 @@
       <c r="C66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D66" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>RDM\APR - SD - PadreHurtado</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G66"/>
@@ -2425,11 +2461,11 @@
       <c r="C67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D67" s="8" t="str">
+        <f t="shared" ref="D67:D99" si="1">CONCATENATE(B67,C67)</f>
         <v>RDM\APR - SD - ParcelasSanManuelLaVictoria</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="8" t="s">
         <v>148</v>
       </c>
       <c r="G67"/>
@@ -2446,11 +2482,11 @@
       <c r="C68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedegua</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="8" t="s">
         <v>149</v>
       </c>
       <c r="G68"/>
@@ -2467,11 +2503,11 @@
       <c r="C69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pullancon</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G69"/>
@@ -2488,11 +2524,11 @@
       <c r="C70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradaHondaArtificio</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="8" t="s">
         <v>151</v>
       </c>
       <c r="G70"/>
@@ -2509,11 +2545,11 @@
       <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzoCasasViejas</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="8" t="s">
         <v>152</v>
       </c>
       <c r="G71"/>
@@ -2530,11 +2566,11 @@
       <c r="C72" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SantaMarta</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="8" t="s">
         <v>153</v>
       </c>
       <c r="G72"/>
@@ -2551,11 +2587,11 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - TrapicheLongotoma</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G73"/>
@@ -2572,11 +2608,11 @@
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Cabildo</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="8" t="s">
         <v>155</v>
       </c>
       <c r="G74"/>
@@ -2593,11 +2629,11 @@
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Chincolco</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="8" t="s">
         <v>156</v>
       </c>
       <c r="G75"/>
@@ -2614,11 +2650,11 @@
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - LaLigua</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G76"/>
@@ -2635,11 +2671,11 @@
       <c r="C77" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Petorca</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="8" t="s">
         <v>158</v>
       </c>
       <c r="G77"/>
@@ -2656,11 +2692,11 @@
       <c r="C78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Transmission Link FLow</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="8" t="s">
         <v>159</v>
       </c>
       <c r="G78"/>
@@ -2677,11 +2713,11 @@
       <c r="C79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - WD_poblacion</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="8" t="s">
         <v>186</v>
       </c>
       <c r="G79"/>
@@ -2698,11 +2734,11 @@
       <c r="C80" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Water Demand</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="8" t="s">
         <v>161</v>
       </c>
       <c r="G80"/>
@@ -2719,11 +2755,11 @@
       <c r="C81" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Unmet Demand</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="8" t="s">
         <v>173</v>
       </c>
       <c r="G81"/>
@@ -2740,11 +2776,11 @@
       <c r="C82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="4" t="str">
+      <c r="D82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Operacion Pozos</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="8" t="s">
         <v>171</v>
       </c>
       <c r="G82"/>
@@ -2761,11 +2797,11 @@
       <c r="C83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="8" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Personas</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="8" t="s">
         <v>170</v>
       </c>
       <c r="G83"/>
@@ -2782,11 +2818,11 @@
       <c r="C84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="4" t="str">
-        <f t="shared" ref="D84:D98" si="2">_xlfn.CONCAT(B84:C84)</f>
+      <c r="D84" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - SobranteEnPinadero</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="8" t="s">
         <v>167</v>
       </c>
       <c r="G84"/>
@@ -2803,11 +2839,11 @@
       <c r="C85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - AlicahueEnColliguay</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="8" t="s">
         <v>168</v>
       </c>
       <c r="G85"/>
@@ -2824,11 +2860,11 @@
       <c r="C86" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D86" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - PedernalEnTejada</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="8" t="s">
         <v>169</v>
       </c>
       <c r="H86"/>
@@ -2844,11 +2880,11 @@
       <c r="C87" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D87" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLaChupalla</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="8" t="s">
         <v>180</v>
       </c>
       <c r="H87"/>
@@ -2864,11 +2900,11 @@
       <c r="C88" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D88" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLosAngeles</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="8" t="s">
         <v>181</v>
       </c>
       <c r="H88"/>
@@ -2884,11 +2920,11 @@
       <c r="C89" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D89" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalsePedernal</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="8" t="s">
         <v>182</v>
       </c>
       <c r="H89"/>
@@ -2904,11 +2940,11 @@
       <c r="C90" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D90" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLasPalmas</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="8" t="s">
         <v>183</v>
       </c>
       <c r="H90"/>
@@ -2924,11 +2960,11 @@
       <c r="C91" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D91" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\CA - Caudales en desembocadura</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="8" t="s">
         <v>184</v>
       </c>
       <c r="H91"/>
@@ -2939,17 +2975,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Aduccion APR\TODAS APR</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D92" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-A_TodasAprs</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H92"/>
       <c r="J92"/>
@@ -2959,17 +2995,17 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-C_TodasAprs</v>
-      </c>
-      <c r="E93" s="4" t="s">
         <v>191</v>
+      </c>
+      <c r="D93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Camiones Aljibes\TODAS APR</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="J93"/>
     </row>
@@ -2978,17 +3014,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-D_AprsLigua</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="D94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Desalacion\TODAS APR</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -2999,59 +3035,56 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-D_AprsPetorca</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="D95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Desalacion\TODAS Agro</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+    <row r="96" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D96" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-P_AprsLigua</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="J96"/>
+      <c r="B96" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Bombeo APR\Todas APR y APU</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>RDM\CT-P_AprsPetorca</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="D97" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Costos Agricolas\Costo de Bombeo - pozos agricolas</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -3067,11 +3100,11 @@
       <c r="C98" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D98" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>RDM\IRA - Caudales_SHAC</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="8" t="s">
         <v>185</v>
       </c>
       <c r="G98"/>
@@ -3079,11 +3112,22 @@
       <c r="J98"/>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>RDM\Factor de reduccion de bombeo</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
@@ -3092,8 +3136,8 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
@@ -3102,8 +3146,8 @@
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
@@ -3112,8 +3156,8 @@
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
       <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
@@ -3122,8 +3166,8 @@
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
       <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
@@ -3132,8 +3176,8 @@
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="J104"/>
@@ -3142,8 +3186,8 @@
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
       <c r="G105"/>
       <c r="H105"/>
       <c r="J105"/>
@@ -3152,8 +3196,8 @@
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="J106"/>
@@ -3162,8 +3206,8 @@
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="J107"/>
@@ -3172,8 +3216,8 @@
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108"/>
@@ -3182,8 +3226,8 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="G109"/>
       <c r="H109"/>
       <c r="J109"/>
@@ -3192,8 +3236,8 @@
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
       <c r="G110"/>
       <c r="H110"/>
       <c r="J110"/>
@@ -3202,8 +3246,8 @@
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="J111"/>
@@ -3212,8 +3256,8 @@
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="J112"/>
@@ -3222,8 +3266,8 @@
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="J113"/>
@@ -3232,8 +3276,8 @@
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
       <c r="G114"/>
       <c r="H114"/>
       <c r="J114"/>
@@ -3242,8 +3286,8 @@
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
       <c r="G115"/>
       <c r="H115"/>
       <c r="J115"/>
@@ -3252,8 +3296,8 @@
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
       <c r="G116"/>
       <c r="H116"/>
       <c r="J116"/>
@@ -3262,8 +3306,8 @@
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
       <c r="G117"/>
       <c r="H117"/>
       <c r="J117"/>
@@ -3272,21 +3316,11 @@
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
       <c r="G118"/>
       <c r="H118"/>
       <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="J119"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Suárez P\Desktop\GitHub - KT\WEAP_vagrant_multimachine\src\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC91CF-6875-40DA-8008-7FB81CCAF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -612,15 +614,6 @@
     <t>\TODAS APR</t>
   </si>
   <si>
-    <t>Costos Agricolas</t>
-  </si>
-  <si>
-    <t>\Costo de Bombeo - pozos agricolas</t>
-  </si>
-  <si>
-    <t>Costos Bombeo APR</t>
-  </si>
-  <si>
     <t>Costos Camiones Aljibes</t>
   </si>
   <si>
@@ -640,22 +633,13 @@
   </si>
   <si>
     <t>CT-D_Agro</t>
-  </si>
-  <si>
-    <t>CT-P_TodasAprs</t>
-  </si>
-  <si>
-    <t>CT-P_Agro</t>
-  </si>
-  <si>
-    <t>\Todas APR y APU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,20 +670,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -746,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -754,13 +724,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,27 +1042,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,14 +1072,14 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1126,15 +1089,15 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="4" t="str">
         <f>CONCATENATE(B2,C2)</f>
         <v>RDM\AGR - Area</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1144,15 +1107,15 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,C3)</f>
         <v>RDM\AGR - Daily Etp</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1162,15 +1125,15 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Eta</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1180,15 +1143,15 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_m3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1198,15 +1161,15 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Daily Irrigation_mm</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1216,15 +1179,15 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L05</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1234,15 +1197,15 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L06</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1252,15 +1215,15 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L07</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1270,15 +1233,15 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L08</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1288,15 +1251,15 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L09</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1306,18 +1269,18 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_L10</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1327,18 +1290,18 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P02</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1348,18 +1311,18 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P05</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1369,18 +1332,18 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P06</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1390,18 +1353,18 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P07</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1411,18 +1374,18 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - SD - Agricola_P08</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1432,18 +1395,18 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\AGR - Annual Crop Production</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1453,18 +1416,18 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - AlicahueLosPerales</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1474,18 +1437,18 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - BartolilloPaihuen</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1495,18 +1458,18 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaVegaLaVina</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1516,18 +1479,18 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosMolinos</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1537,18 +1500,18 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - SanLorenzo</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1558,18 +1521,18 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - Algarrobo</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1579,18 +1542,18 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElQuemado</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1600,18 +1563,18 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - Guayacan</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1621,18 +1584,18 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaMora</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1642,18 +1605,18 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasPuertas</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1663,18 +1626,18 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaHiguera</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1684,18 +1647,18 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - PenablancaMontegrande</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1705,18 +1668,18 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - SanJose</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1726,18 +1689,18 @@
       <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElCarmen</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1747,18 +1710,18 @@
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="8" t="str">
+      <c r="D33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - PuenteTalanquen</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1768,18 +1731,18 @@
       <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="8" t="str">
+      <c r="D34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradillaLosMaitenes</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1789,18 +1752,18 @@
       <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="8" t="str">
+      <c r="D35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ValleHermoso</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1810,18 +1773,18 @@
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="8" t="str">
+      <c r="D36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCapillaRocoAlto</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1831,18 +1794,18 @@
       <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="8" t="str">
+      <c r="D37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosCorrales</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1852,18 +1815,18 @@
       <c r="C38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="8" t="str">
+      <c r="D38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - PasoOscuro</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1873,18 +1836,18 @@
       <c r="C39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="8" t="str">
+      <c r="D39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradadelCepo</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1894,18 +1857,18 @@
       <c r="C40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasSalinas</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1915,18 +1878,18 @@
       <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="8" t="str">
+      <c r="D41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - CalleLarga</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1936,18 +1899,18 @@
       <c r="C42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="8" t="str">
+      <c r="D42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - Chalaco</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1957,18 +1920,18 @@
       <c r="C43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="8" t="str">
+      <c r="D43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - Pedernal</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1978,18 +1941,18 @@
       <c r="C44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="8" t="str">
+      <c r="D44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElSobrante</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1999,18 +1962,18 @@
       <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="8" t="str">
+      <c r="D45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ValleLosOlmos</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2020,18 +1983,18 @@
       <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="8" t="str">
+      <c r="D46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - BronceElDuraznoUnido</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2041,18 +2004,18 @@
       <c r="C47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="8" t="str">
+      <c r="D47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - HierroViejo</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2062,18 +2025,18 @@
       <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="8" t="str">
+      <c r="D48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCanelilla</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2083,18 +2046,18 @@
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaNipa</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2104,18 +2067,18 @@
       <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="8" t="str">
+      <c r="D50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaPolcura</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2125,18 +2088,18 @@
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="8" t="str">
+      <c r="D51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LosComunes</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2146,18 +2109,18 @@
       <c r="C52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="8" t="str">
+      <c r="D52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ManuelMontt</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2167,18 +2130,18 @@
       <c r="C53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="8" t="str">
+      <c r="D53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - QuebradadeCastro</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="4" t="s">
         <v>134</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2188,18 +2151,18 @@
       <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="8" t="str">
+      <c r="D54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - SorTeresitadeSantaJulia</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2209,18 +2172,18 @@
       <c r="C55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="8" t="str">
+      <c r="D55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - VillaAlbertoCallejas</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="4" t="s">
         <v>136</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2230,18 +2193,18 @@
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="8" t="str">
+      <c r="D56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElManzano</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2251,18 +2214,18 @@
       <c r="C57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="8" t="str">
+      <c r="D57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - FrutillarAlto</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2272,18 +2235,18 @@
       <c r="C58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - FrutillarBajo</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2293,18 +2256,18 @@
       <c r="C59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="8" t="str">
+      <c r="D59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LasPalmas</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2314,18 +2277,18 @@
       <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="8" t="str">
+      <c r="D60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - Palquico</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2335,18 +2298,18 @@
       <c r="C61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="8" t="str">
+      <c r="D61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ArtificioParadero4</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2356,18 +2319,18 @@
       <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="8" t="str">
+      <c r="D62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ArtificiodePedegua</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2377,18 +2340,18 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="8" t="str">
+      <c r="D63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - ElFrancesSanRamon</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2398,18 +2361,18 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="8" t="str">
+      <c r="D64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - LaCanela</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2419,18 +2382,18 @@
       <c r="C65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="8" t="str">
+      <c r="D65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - MaitenLargo</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="4" t="s">
         <v>146</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2440,18 +2403,18 @@
       <c r="C66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="8" t="str">
+      <c r="D66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RDM\APR - SD - PadreHurtado</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="4" t="s">
         <v>147</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2461,18 +2424,18 @@
       <c r="C67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="8" t="str">
-        <f t="shared" ref="D67:D99" si="1">CONCATENATE(B67,C67)</f>
+      <c r="D67" s="4" t="str">
+        <f t="shared" ref="D67:D97" si="1">CONCATENATE(B67,C67)</f>
         <v>RDM\APR - SD - ParcelasSanManuelLaVictoria</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2482,18 +2445,18 @@
       <c r="C68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="8" t="str">
+      <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pedegua</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2503,18 +2466,18 @@
       <c r="C69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="8" t="str">
+      <c r="D69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - Pullancon</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2524,18 +2487,18 @@
       <c r="C70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="8" t="str">
+      <c r="D70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - QuebradaHondaArtificio</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2545,18 +2508,18 @@
       <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="8" t="str">
+      <c r="D71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SanLorenzoCasasViejas</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2566,18 +2529,18 @@
       <c r="C72" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="8" t="str">
+      <c r="D72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - SantaMarta</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2587,18 +2550,18 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="8" t="str">
+      <c r="D73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APR - SD - TrapicheLongotoma</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="4" t="s">
         <v>154</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2608,18 +2571,18 @@
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="8" t="str">
+      <c r="D74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Cabildo</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2629,18 +2592,18 @@
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="8" t="str">
+      <c r="D75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Chincolco</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="4" t="s">
         <v>156</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2650,18 +2613,18 @@
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="8" t="str">
+      <c r="D76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - LaLigua</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2671,18 +2634,18 @@
       <c r="C77" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="8" t="str">
+      <c r="D77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\APU - SD - Petorca</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2692,18 +2655,18 @@
       <c r="C78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="8" t="str">
+      <c r="D78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Transmission Link FLow</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="4" t="s">
         <v>159</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2713,18 +2676,18 @@
       <c r="C79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="8" t="str">
+      <c r="D79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - WD_poblacion</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2734,18 +2697,18 @@
       <c r="C80" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="8" t="str">
+      <c r="D80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Water Demand</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2755,18 +2718,18 @@
       <c r="C81" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="8" t="str">
+      <c r="D81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Unmet Demand</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2776,18 +2739,18 @@
       <c r="C82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="8" t="str">
+      <c r="D82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Operacion Pozos</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2797,18 +2760,18 @@
       <c r="C83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="8" t="str">
+      <c r="D83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\AP - Personas</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="4" t="s">
         <v>170</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2818,18 +2781,18 @@
       <c r="C84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="8" t="str">
+      <c r="D84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - SobranteEnPinadero</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2839,18 +2802,18 @@
       <c r="C85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="8" t="str">
+      <c r="D85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - AlicahueEnColliguay</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -2860,17 +2823,17 @@
       <c r="C86" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="8" t="str">
+      <c r="D86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - PedernalEnTejada</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -2880,17 +2843,17 @@
       <c r="C87" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="8" t="str">
+      <c r="D87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLaChupalla</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="4" t="s">
         <v>180</v>
       </c>
       <c r="H87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2900,17 +2863,17 @@
       <c r="C88" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="8" t="str">
+      <c r="D88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLosAngeles</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="4" t="s">
         <v>181</v>
       </c>
       <c r="H88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -2920,17 +2883,17 @@
       <c r="C89" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="8" t="str">
+      <c r="D89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalsePedernal</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -2940,17 +2903,17 @@
       <c r="C90" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="8" t="str">
+      <c r="D90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CEC - BajoEmbalseLasPalmas</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2960,17 +2923,17 @@
       <c r="C91" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="8" t="str">
+      <c r="D91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RDM\CA - Caudales en desembocadura</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2980,347 +2943,308 @@
       <c r="C92" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="8" t="str">
+      <c r="D92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Aduccion APR\TODAS APR</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D93" s="8" t="str">
+      <c r="D93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Camiones Aljibes\TODAS APR</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="4" t="s">
         <v>189</v>
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Desalacion\TODAS APR</v>
       </c>
-      <c r="E94" s="8" t="s">
-        <v>200</v>
+      <c r="E94" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="8" t="str">
+        <v>194</v>
+      </c>
+      <c r="D95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Desalacion\TODAS Agro</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>201</v>
+      <c r="E95" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="12" t="str">
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Costos Bombeo APR\Todas APR y APU</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>RDM\IRA - Caudales_SHAC</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="8" t="str">
+        <v>195</v>
+      </c>
+      <c r="D97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Costos Agricolas\Costo de Bombeo - pozos agricolas</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>203</v>
+        <v>RDM\Factor de reduccion de bombeo</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\IRA - Caudales_SHAC</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>185</v>
-      </c>
+    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
       <c r="G98"/>
       <c r="H98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>RDM\Factor de reduccion de bombeo</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>199</v>
-      </c>
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
       <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
       <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
       <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
       <c r="G105"/>
       <c r="H105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
       <c r="G109"/>
       <c r="H109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
       <c r="G110"/>
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
       <c r="G114"/>
       <c r="H114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
       <c r="G115"/>
       <c r="H115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
       <c r="G116"/>
       <c r="H116"/>
       <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="J118"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/datos/Favorites_WEAP.xlsx
+++ b/src/datos/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\Github\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC91CF-6875-40DA-8008-7FB81CCAF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589A5A0-60EC-4419-8B43-DE981CE92FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -623,40 +623,28 @@
     <t>\TODAS Agro</t>
   </si>
   <si>
-    <t>\Factor de reduccion de bombeo</t>
-  </si>
-  <si>
-    <t>Factor_reduccion_bombeo</t>
-  </si>
-  <si>
     <t>CT-D_TodasAprs</t>
   </si>
   <si>
     <t>CT-D_Agro</t>
+  </si>
+  <si>
+    <t>MODFLOW y Acuiferos</t>
+  </si>
+  <si>
+    <t>\Cota de la napa en pozos de extraccion</t>
+  </si>
+  <si>
+    <t>Napa_pozos_extraccion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -674,19 +662,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -718,12 +720,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1043,50 +1045,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="str">
@@ -1097,14 +1099,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="str">
@@ -1115,14 +1117,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1133,14 +1135,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="str">
@@ -1151,14 +1153,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="str">
@@ -1169,14 +1171,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="str">
@@ -1187,14 +1189,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="4" t="str">
@@ -1205,14 +1207,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4" t="str">
@@ -1223,14 +1225,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4" t="str">
@@ -1241,14 +1243,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="str">
@@ -1259,14 +1261,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="str">
@@ -1276,18 +1278,15 @@
       <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="str">
@@ -1297,18 +1296,15 @@
       <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="str">
@@ -1318,18 +1314,15 @@
       <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="str">
@@ -1339,18 +1332,15 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="str">
@@ -1360,18 +1350,15 @@
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="str">
@@ -1381,18 +1368,15 @@
       <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4" t="str">
@@ -1402,18 +1386,15 @@
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="4" t="str">
@@ -1427,14 +1408,14 @@
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="4" t="str">
@@ -1448,14 +1429,14 @@
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="4" t="str">
@@ -1469,14 +1450,14 @@
       <c r="H21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="4" t="str">
@@ -1490,14 +1471,14 @@
       <c r="H22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="4" t="str">
@@ -1511,14 +1492,14 @@
       <c r="H23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4" t="str">
@@ -1532,14 +1513,14 @@
       <c r="H24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="str">
@@ -1553,14 +1534,14 @@
       <c r="H25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="str">
@@ -1574,14 +1555,14 @@
       <c r="H26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="str">
@@ -1595,14 +1576,14 @@
       <c r="H27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="4" t="str">
@@ -1616,14 +1597,14 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="4" t="str">
@@ -1637,14 +1618,14 @@
       <c r="H29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="4" t="str">
@@ -1658,14 +1639,14 @@
       <c r="H30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="4" t="str">
@@ -1679,14 +1660,14 @@
       <c r="H31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4" t="str">
@@ -1700,14 +1681,14 @@
       <c r="H32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="4" t="str">
@@ -1721,14 +1702,14 @@
       <c r="H33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="4" t="str">
@@ -1742,14 +1723,14 @@
       <c r="H34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="4" t="str">
@@ -1763,14 +1744,14 @@
       <c r="H35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="4" t="str">
@@ -1784,14 +1765,14 @@
       <c r="H36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="4" t="str">
@@ -1805,14 +1786,14 @@
       <c r="H37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="4" t="str">
@@ -1826,14 +1807,14 @@
       <c r="H38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="4" t="str">
@@ -1847,14 +1828,14 @@
       <c r="H39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="4" t="str">
@@ -1868,14 +1849,14 @@
       <c r="H40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D41" s="4" t="str">
@@ -1889,14 +1870,14 @@
       <c r="H41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="4" t="str">
@@ -1910,14 +1891,14 @@
       <c r="H42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="4" t="str">
@@ -1931,14 +1912,14 @@
       <c r="H43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D44" s="4" t="str">
@@ -1952,14 +1933,14 @@
       <c r="H44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="4" t="str">
@@ -1973,14 +1954,14 @@
       <c r="H45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="4" t="str">
@@ -1994,14 +1975,14 @@
       <c r="H46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="str">
@@ -2015,14 +1996,14 @@
       <c r="H47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="4" t="str">
@@ -2036,14 +2017,14 @@
       <c r="H48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="4" t="str">
@@ -2057,14 +2038,14 @@
       <c r="H49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="4" t="str">
@@ -2078,14 +2059,14 @@
       <c r="H50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="4" t="str">
@@ -2099,14 +2080,14 @@
       <c r="H51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="4" t="str">
@@ -2120,14 +2101,14 @@
       <c r="H52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="4" t="str">
@@ -2141,14 +2122,14 @@
       <c r="H53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D54" s="4" t="str">
@@ -2162,14 +2143,14 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="4" t="str">
@@ -2183,14 +2164,14 @@
       <c r="H55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="4" t="str">
@@ -2204,14 +2185,14 @@
       <c r="H56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="4" t="str">
@@ -2225,14 +2206,14 @@
       <c r="H57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="4" t="str">
@@ -2246,14 +2227,14 @@
       <c r="H58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="4" t="str">
@@ -2267,14 +2248,14 @@
       <c r="H59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="4" t="str">
@@ -2288,14 +2269,14 @@
       <c r="H60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="4" t="str">
@@ -2309,14 +2290,14 @@
       <c r="H61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="4" t="str">
@@ -2330,14 +2311,14 @@
       <c r="H62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="4" t="str">
@@ -2351,14 +2332,14 @@
       <c r="H63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="4" t="str">
@@ -2372,14 +2353,14 @@
       <c r="H64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D65" s="4" t="str">
@@ -2393,14 +2374,14 @@
       <c r="H65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D66" s="4" t="str">
@@ -2414,14 +2395,14 @@
       <c r="H66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D67" s="4" t="str">
@@ -2435,14 +2416,14 @@
       <c r="H67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="4" t="str">
@@ -2456,14 +2437,14 @@
       <c r="H68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D69" s="4" t="str">
@@ -2477,14 +2458,14 @@
       <c r="H69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D70" s="4" t="str">
@@ -2498,14 +2479,14 @@
       <c r="H70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="4" t="str">
@@ -2519,14 +2500,14 @@
       <c r="H71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D72" s="4" t="str">
@@ -2540,14 +2521,14 @@
       <c r="H72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D73" s="4" t="str">
@@ -2561,14 +2542,14 @@
       <c r="H73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="4" t="str">
@@ -2582,14 +2563,14 @@
       <c r="H74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D75" s="4" t="str">
@@ -2603,14 +2584,14 @@
       <c r="H75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D76" s="4" t="str">
@@ -2624,14 +2605,14 @@
       <c r="H76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D77" s="4" t="str">
@@ -2645,14 +2626,14 @@
       <c r="H77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D78" s="4" t="str">
@@ -2666,14 +2647,14 @@
       <c r="H78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D79" s="4" t="str">
@@ -2687,14 +2668,14 @@
       <c r="H79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="4" t="str">
@@ -2708,14 +2689,14 @@
       <c r="H80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D81" s="4" t="str">
@@ -2729,14 +2710,14 @@
       <c r="H81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D82" s="4" t="str">
@@ -2750,14 +2731,14 @@
       <c r="H82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D83" s="4" t="str">
@@ -2771,14 +2752,14 @@
       <c r="H83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D84" s="4" t="str">
@@ -2792,14 +2773,14 @@
       <c r="H84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D85" s="4" t="str">
@@ -2813,14 +2794,14 @@
       <c r="H85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D86" s="4" t="str">
@@ -2830,17 +2811,18 @@
       <c r="E86" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="G86"/>
       <c r="H86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D87" s="4" t="str">
@@ -2850,17 +2832,18 @@
       <c r="E87" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="G87"/>
       <c r="H87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D88" s="4" t="str">
@@ -2870,17 +2853,18 @@
       <c r="E88" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="G88"/>
       <c r="H88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="4" t="str">
@@ -2890,17 +2874,18 @@
       <c r="E89" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="G89"/>
       <c r="H89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="4" t="str">
@@ -2910,17 +2895,18 @@
       <c r="E90" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="G90"/>
       <c r="H90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D91" s="4" t="str">
@@ -2930,324 +2916,327 @@
       <c r="E91" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="G91"/>
       <c r="H91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f>CONCATENATE(B92,C92)</f>
+        <v>MODFLOW y Acuiferos\Cota de la napa en pozos de extraccion</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Aduccion APR\TODAS APR</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>92</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Camiones Aljibes\TODAS APR</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="G94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Costos Desalacion\TODAS APR</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <v>94</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Costos Desalacion\TODAS Agro</v>
-      </c>
       <c r="E95" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>RDM\IRA - Caudales_SHAC</v>
+        <v>Costos Desalacion\TODAS Agro</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>195</v>
+      <c r="C97" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>RDM\Factor de reduccion de bombeo</v>
+        <v>RDM\IRA - Caudales_SHAC</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
       <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+    <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+    <row r="101" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
       <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+    <row r="103" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+    <row r="104" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
       <c r="G105"/>
       <c r="H105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+    <row r="108" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+    <row r="109" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
       <c r="G109"/>
       <c r="H109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+    <row r="110" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
       <c r="G110"/>
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+    <row r="111" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+    <row r="112" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+    <row r="113" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+    <row r="114" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
       <c r="G114"/>
       <c r="H114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+    <row r="115" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
       <c r="G115"/>
       <c r="H115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+    <row r="116" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
       <c r="G116"/>
       <c r="H116"/>
       <c r="J116"/>
     </row>
+    <row r="117" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="J117"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
